--- a/data/trans_bre/P19C04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P19C04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,59%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,06; 9,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,51; -3,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,56; 0,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,87; 1,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,35; 78,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,88; -8,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,75; 15,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,04; 10,24</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,08%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,24; -4,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; -7,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,8; -0,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,39; -2,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,66; -20,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,73; -26,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,05; -4,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,14; -14,93</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,16%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,44; -4,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,83; -2,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,51; 0,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 1,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,41; -25,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,14; -9,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,66; 3,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,93; 11,18</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,79%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; 1,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,97; -4,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,79; -2,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,42; -0,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,59; 10,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,21; -18,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,27; -15,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,95; -2,78</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,89%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,91; 1,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; 2,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,84; 0,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,52; -3,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,66; 11,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,07; 13,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,85; 3,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,56; -23,46</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,5%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; -3,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; -5,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; -2,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; -2,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,97; -16,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,04; -21,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,39; -17,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,01; -20,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-7,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-16,71</t>
+          <t>-13,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,25</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,71</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,36%</t>
+          <t>-36,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-50,13%</t>
+          <t>-42,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-51,0%</t>
+          <t>-32,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-33,59%</t>
+          <t>-30,87%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 9,76</t>
+          <t>-13,01; -3,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,51; -3,53</t>
+          <t>-18,51; -8,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 0,36</t>
+          <t>-11,63; -1,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 1,34</t>
+          <t>-11,14; -3,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 78,47</t>
+          <t>-52,51; -18,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-71,88; -8,71</t>
+          <t>-54,12; -29,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-77,75; 15,0</t>
+          <t>-47,77; -9,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,04; 10,24</t>
+          <t>-44,25; -15,74</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>-8,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,53</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,4</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-41,38%</t>
+          <t>-41,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-41,29%</t>
+          <t>-25,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-28,81%</t>
+          <t>-19,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,08%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -4,13</t>
+          <t>-12,44; -4,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -7,4</t>
+          <t>-10,83; -2,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -0,78</t>
+          <t>-6,51; 0,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -2,87</t>
+          <t>-3,05; 6,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,66; -20,51</t>
+          <t>-53,41; -25,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,73; -26,26</t>
+          <t>-38,14; -9,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,05; -4,01</t>
+          <t>-36,66; 3,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,14; -14,93</t>
+          <t>-21,3; 110,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-41,44%</t>
+          <t>-12,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-25,31%</t>
+          <t>-36,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-19,01%</t>
+          <t>-39,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-13,16%</t>
+          <t>-40,19%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -4,77</t>
+          <t>-7,51; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -2,29</t>
+          <t>-12,97; -4,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 0,5</t>
+          <t>-11,79; -2,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 1,35</t>
+          <t>-8,79; -0,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,41; -25,28</t>
+          <t>-33,59; 10,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,14; -9,36</t>
+          <t>-48,21; -18,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 3,22</t>
+          <t>-54,27; -15,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,93; 11,18</t>
+          <t>-70,59; -10,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,92</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,99%</t>
+          <t>-11,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,12%</t>
+          <t>-9,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,37%</t>
+          <t>-19,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,79%</t>
+          <t>-40,08%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 1,84</t>
+          <t>-5,91; 1,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,97; -4,03</t>
+          <t>-5,28; 2,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -2,68</t>
+          <t>-6,84; 0,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -0,17</t>
+          <t>-10,01; -3,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 10,76</t>
+          <t>-29,66; 11,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,21; -18,66</t>
+          <t>-26,07; 13,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,27; -15,65</t>
+          <t>-37,85; 3,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,95; -2,78</t>
+          <t>-55,15; -22,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>-26,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>-28,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-19,96%</t>
+          <t>-27,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-38,89%</t>
+          <t>-27,28%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 1,82</t>
+          <t>-7,41; -3,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 2,16</t>
+          <t>-9,42; -5,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 0,39</t>
+          <t>-6,86; -2,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,52; -3,43</t>
+          <t>-6,32; -0,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 11,02</t>
+          <t>-34,97; -16,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 13,32</t>
+          <t>-36,04; -21,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 3,15</t>
+          <t>-36,39; -17,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,56; -23,46</t>
+          <t>-39,93; -8,27</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-5,26</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-7,16</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-4,83</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-4,64</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-26,38%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-28,99%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-27,05%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-29,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-7,41; -3,12</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-9,42; -5,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; -2,82</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; -2,99</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-34,97; -16,54</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-36,04; -21,28</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-36,39; -17,49</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-38,01; -20,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19C04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -3,52</t>
+          <t>-12,56; -2,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -8,28</t>
+          <t>-17,97; -8,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -1,91</t>
+          <t>-11,8; -2,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -3,07</t>
+          <t>-10,84; -2,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,51; -18,35</t>
+          <t>-51,38; -14,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,12; -29,25</t>
+          <t>-53,45; -29,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-47,77; -9,21</t>
+          <t>-50,26; -12,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,25; -15,74</t>
+          <t>-43,37; -13,55</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -4,77</t>
+          <t>-12,72; -4,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -2,29</t>
+          <t>-11,19; -2,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 0,5</t>
+          <t>-6,92; 0,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 6,91</t>
+          <t>-3,08; 6,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,41; -25,28</t>
+          <t>-54,61; -26,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,14; -9,36</t>
+          <t>-38,76; -9,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 3,22</t>
+          <t>-37,87; 1,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 110,55</t>
+          <t>-21,32; 96,98</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 1,84</t>
+          <t>-7,34; 2,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,97; -4,03</t>
+          <t>-13,38; -4,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -2,68</t>
+          <t>-11,64; -3,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,79; -0,74</t>
+          <t>-9,82; -1,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 10,76</t>
+          <t>-32,65; 13,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,21; -18,66</t>
+          <t>-49,19; -19,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,27; -15,65</t>
+          <t>-54,38; -18,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-70,59; -10,26</t>
+          <t>-73,52; -12,28</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 1,82</t>
+          <t>-5,79; 1,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 2,16</t>
+          <t>-5,31; 2,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 0,39</t>
+          <t>-6,86; 0,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -3,17</t>
+          <t>-9,86; -3,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 11,02</t>
+          <t>-29,5; 10,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 13,32</t>
+          <t>-25,87; 12,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 3,15</t>
+          <t>-37,85; 1,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,15; -22,41</t>
+          <t>-54,41; -23,77</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -3,12</t>
+          <t>-7,1; -3,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -5,04</t>
+          <t>-9,28; -4,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,86; -2,82</t>
+          <t>-7,18; -3,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -0,77</t>
+          <t>-6,13; -0,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,97; -16,54</t>
+          <t>-34,32; -17,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,04; -21,28</t>
+          <t>-35,81; -20,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-36,39; -17,49</t>
+          <t>-37,62; -17,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,93; -8,27</t>
+          <t>-39,83; -8,22</t>
         </is>
       </c>
     </row>
